--- a/data/edited_data/employment_rate_single_mothers_2021.xlsx
+++ b/data/edited_data/employment_rate_single_mothers_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/female-labour/data/edited_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba135bfd0da921d/Documents/12_Ironhack/projects/maternal-employment/data/edited_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3460F706-DCC0-4B27-9D00-AA868396AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499C168A-835E-4A6E-9C34-B0D74B64E704}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3460F706-DCC0-4B27-9D00-AA868396AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C1AB30-2EFA-4272-9885-1D7FF820690D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2263E8BA-2A7D-418A-86FC-4EA814713F94}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>employment_rate_single_mothers_2021</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>OECD average</t>
+  </si>
+  <si>
+    <t>emp_mothers_single</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +212,12 @@
       <color theme="1"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -247,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -259,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -276,6 +285,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,7 +611,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,10 +621,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -641,7 +654,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="4">
         <v>80.470830202102661</v>
@@ -713,7 +726,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2">
         <v>74.324887990951538</v>
@@ -737,7 +750,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="4">
         <v>72.595097337247665</v>
@@ -761,7 +774,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>71.385853724373618</v>
@@ -769,7 +782,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4">
         <v>70.786210149526596</v>
@@ -793,7 +806,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>69.767111539840698</v>
@@ -801,7 +814,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4">
         <v>69.605547189712524</v>
@@ -833,7 +846,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="4">
         <v>67.402535676956177</v>
@@ -841,7 +854,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>67.096877098083496</v>
@@ -865,7 +878,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="4">
         <v>65.02934967988682</v>
@@ -905,7 +918,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
         <v>61.296859169199593</v>
@@ -921,7 +934,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>59.366631551626106</v>
@@ -937,7 +950,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2"/>
     </row>
